--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -32,12 +32,17 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,8 +57,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="false">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,9 +352,33 @@
   </sheetViews>
   <sheetData>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
 </worksheet>
